--- a/output/20221109/tables/wald_test_traits.xlsx
+++ b/output/20221109/tables/wald_test_traits.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erb32/github/cambodia_biodiversity2/output/20221109/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57CE22-55A2-DA4D-8E01-461FBAB11F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500"/>
   </bookViews>
   <sheets>
-    <sheet name="Traits models" sheetId="1" r:id="rId2"/>
+    <sheet name="Traits models" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -84,8 +91,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -99,7 +109,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -112,22 +129,338 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView tabSelected="true" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13.5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.6640625" bestFit="true" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -144,7 +477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -154,14 +487,14 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.13919681310653687</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -171,14 +504,14 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.32146859169006348</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -188,14 +521,14 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.50493299961090088</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -205,14 +538,14 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.67090719938278198</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -222,14 +555,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.14650774002075195</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -239,14 +572,14 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.41066727042198181</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -256,14 +589,14 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0.34356507658958435</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -273,14 +606,14 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.80920392274856567</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -290,14 +623,14 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.0584079809486866</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -307,14 +640,14 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.91986262798309326</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -324,14 +657,14 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.45799216628074646</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -341,14 +674,14 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.62228637933731079</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -358,14 +691,14 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.12256865203380585</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -375,14 +708,14 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.24784553050994873</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -392,14 +725,14 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0.90398174524307251</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -409,14 +742,14 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.79658967256546021</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -426,14 +759,14 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0.091644130647182465</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -443,14 +776,14 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>0.60124033689498901</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -460,14 +793,14 @@
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>0.46931272745132446</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -477,14 +810,14 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0.0053906766697764397</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -494,14 +827,14 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.38108804821968079</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -511,14 +844,14 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.43287789821624756</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -528,14 +861,14 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0.49194657802581787</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -545,14 +878,14 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>0.2104874849319458</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -562,14 +895,14 @@
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>0.95682370662689209</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -579,14 +912,14 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>0.5325893759727478</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -596,14 +929,14 @@
       <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>0.36432373523712158</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -613,14 +946,14 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>0.43385186791419983</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -630,14 +963,14 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>0.59990298748016357</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -647,14 +980,14 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>0.5695841908454895</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -664,14 +997,14 @@
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>0.40438324213027954</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -681,14 +1014,14 @@
       <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>0.37237828969955444</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -698,14 +1031,14 @@
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>0.36794868111610413</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -715,14 +1048,14 @@
       <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>0.17880904674530029</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -732,14 +1065,14 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>0.81393033266067505</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -749,14 +1082,14 @@
       <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>0.4501323401927948</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -766,14 +1099,14 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>0.38917356729507446</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -783,14 +1116,14 @@
       <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>0.3596765398979187</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -800,14 +1133,14 @@
       <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>0.40382757782936096</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -817,14 +1150,14 @@
       <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>0.24576146900653839</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -834,14 +1167,14 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>0.16473585367202759</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -851,14 +1184,14 @@
       <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>0.26450222730636597</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -868,14 +1201,14 @@
       <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>0.58619529008865356</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -885,14 +1218,14 @@
       <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>0.20108440518379211</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -902,14 +1235,14 @@
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>0.3496268093585968</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -919,14 +1252,14 @@
       <c r="C47" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>0.70233535766601562</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -936,14 +1269,14 @@
       <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>0.5096772313117981</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -953,14 +1286,14 @@
       <c r="C49" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>0.59987783432006836</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -970,14 +1303,14 @@
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>0.96284645795822144</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -987,14 +1320,14 @@
       <c r="C51" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>0.42402699589729309</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1004,14 +1337,14 @@
       <c r="C52" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>0.516826331615448</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1021,14 +1354,14 @@
       <c r="C53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>0.67869400978088379</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1038,14 +1371,14 @@
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>0.16774386167526245</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1055,14 +1388,14 @@
       <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>0.11301346123218536</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1072,14 +1405,14 @@
       <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>0.93871557712554932</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1089,14 +1422,14 @@
       <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>0.49102577567100525</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1106,14 +1439,14 @@
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>0.18476946651935577</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1123,14 +1456,14 @@
       <c r="C59" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>0.33539754152297974</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1140,14 +1473,14 @@
       <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>0.45795705914497375</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1157,13 +1490,17 @@
       <c r="C61" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>0.30357220768928528</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="62" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/20221109/tables/wald_test_traits.xlsx
+++ b/output/20221109/tables/wald_test_traits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="22">
   <si>
     <t>Outcome</t>
   </si>
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3">
-        <v>0.38108804821968079</v>
+        <v>0.70525896549224854</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -845,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="3">
-        <v>0.43287789821624756</v>
+        <v>0.067897513508796692</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="3">
-        <v>0.49194657802581787</v>
+        <v>0.37382817268371582</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>0.2104874849319458</v>
+        <v>0.69820791482925415</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -896,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3">
-        <v>0.95682370662689209</v>
+        <v>0.51734530925750732</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -913,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="3">
-        <v>0.5325893759727478</v>
+        <v>0.23478454351425171</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -930,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="3">
-        <v>0.36432373523712158</v>
+        <v>0.21825695037841797</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="3">
-        <v>0.43385186791419983</v>
+        <v>0.094283416867256165</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="3">
-        <v>0.59990298748016357</v>
+        <v>0.49241206049919128</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -981,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="3">
-        <v>0.5695841908454895</v>
+        <v>0.93409627676010132</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="3">
-        <v>0.40438324213027954</v>
+        <v>0.40804854035377502</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -1015,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="3">
-        <v>0.37237828969955444</v>
+        <v>0.13400913774967194</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -1032,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="3">
-        <v>0.36794868111610413</v>
+        <v>0.69322425127029419</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -1049,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="3">
-        <v>0.17880904674530029</v>
+        <v>0.12222940474748611</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -1066,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="D36" s="3">
-        <v>0.81393033266067505</v>
+        <v>0.66325181722640991</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -1083,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="3">
-        <v>0.4501323401927948</v>
+        <v>0.76180267333984375</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="3">
-        <v>0.38917356729507446</v>
+        <v>0.67573755979537964</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="3">
-        <v>0.3596765398979187</v>
+        <v>0.063209205865859985</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="3">
-        <v>0.40382757782936096</v>
+        <v>0.32760131359100342</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="3">
-        <v>0.24576146900653839</v>
+        <v>0.92621254920959473</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="3">
-        <v>0.16473585367202759</v>
+        <v>0.11825999617576599</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="3">
-        <v>0.26450222730636597</v>
+        <v>0.30141553282737732</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -1202,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="3">
-        <v>0.58619529008865356</v>
+        <v>0.67914742231369019</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="3">
-        <v>0.20108440518379211</v>
+        <v>0.29489317536354065</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
@@ -1236,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="3">
-        <v>0.3496268093585968</v>
+        <v>0.97078365087509155</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="3">
-        <v>0.70233535766601562</v>
+        <v>0.64326858520507812</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -1270,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="D48" s="3">
-        <v>0.5096772313117981</v>
+        <v>0.52704286575317383</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -1287,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="3">
-        <v>0.59987783432006836</v>
+        <v>0.84547883272171021</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="3">
-        <v>0.96284645795822144</v>
+        <v>0.44315433502197266</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1321,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="3">
-        <v>0.42402699589729309</v>
+        <v>0.36335489153862</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1338,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="3">
-        <v>0.516826331615448</v>
+        <v>0.45270287990570068</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1355,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="3">
-        <v>0.67869400978088379</v>
+        <v>0.43451151251792908</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1372,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="3">
-        <v>0.16774386167526245</v>
+        <v>0.1230216771364212</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -1389,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="3">
-        <v>0.11301346123218536</v>
+        <v>0.060427822172641754</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -1406,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="D56" s="3">
-        <v>0.93871557712554932</v>
+        <v>0.93923729658126831</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="D57" s="3">
-        <v>0.49102577567100525</v>
+        <v>0.78983819484710693</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1440,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="3">
-        <v>0.18476946651935577</v>
+        <v>0.15403877198696136</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1457,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="3">
-        <v>0.33539754152297974</v>
+        <v>0.41479408740997314</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1474,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="D60" s="3">
-        <v>0.45795705914497375</v>
+        <v>0.67211288213729858</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1491,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="D61" s="3">
-        <v>0.30357220768928528</v>
+        <v>0.62988519668579102</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
